--- a/local/public/uploads/consignments.xlsx
+++ b/local/public/uploads/consignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D162B95-0835-46A0-80FA-5C7739BDE84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE528027-1244-45ED-86C1-7FE266C400B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,133 +20,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
-  <si>
-    <t>consignment_no</t>
-  </si>
-  <si>
-    <t>customer_ref_no</t>
-  </si>
-  <si>
-    <t>sender_code</t>
-  </si>
-  <si>
-    <t>recipient_code</t>
-  </si>
-  <si>
-    <t>recipient_name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>contact_person</t>
-  </si>
-  <si>
-    <t>phone_no</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>declare_value</t>
-  </si>
-  <si>
-    <t>cod_amount</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>total_box</t>
-  </si>
-  <si>
-    <t>sat_del</t>
-  </si>
-  <si>
-    <t>hrc</t>
-  </si>
-  <si>
-    <t>invr</t>
-  </si>
-  <si>
-    <t>service_code</t>
-  </si>
-  <si>
-    <t>P2102100001</t>
-  </si>
-  <si>
-    <t>นายเรืองฤทธิ์ ชาติมนตรี</t>
-  </si>
-  <si>
-    <t>1 ม. 5 หัวฝาย ต.หินเหล็กไฟ อ.คูเมือง จ.บุรีรัมย์</t>
-  </si>
-  <si>
-    <t>085-1004450</t>
-  </si>
-  <si>
-    <t>P2102100002</t>
-  </si>
-  <si>
-    <t>สุภรรณี คลุ้มกระโทก</t>
-  </si>
-  <si>
-    <t>333 ม.16 ต.ประทาย อ.ประทาย จ.นครราชสีมา</t>
-  </si>
-  <si>
-    <t>091-8308064</t>
-  </si>
-  <si>
-    <t>P2102100003</t>
-  </si>
-  <si>
-    <t>สุพิชญ์รดา คำปุทา</t>
-  </si>
-  <si>
-    <t>สำนักวิจัยและพัฒนาการเกษตรเขตที่ 3 
-เลขที่ 180 หมู่ 27 ต.ศิลา  อ.เมือง จ.ขอนแก่น</t>
-  </si>
-  <si>
-    <t>088 7998542</t>
-  </si>
-  <si>
-    <t>P2102100004</t>
-  </si>
-  <si>
-    <t>ชญานันท์ พิมพ์วันวงศ์</t>
-  </si>
-  <si>
-    <t>84 กู่ช้าง - กู่ม้า ต.ในเมือง อ.เมือง จ.ลำพูน</t>
-  </si>
-  <si>
-    <t>088-9479895</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 083-2325974</t>
-  </si>
-  <si>
-    <t>P00001</t>
-  </si>
-  <si>
-    <t>AIYE009280764</t>
-  </si>
-  <si>
-    <t>AIYE009280765</t>
-  </si>
-  <si>
-    <t>AIYE009280766</t>
-  </si>
-  <si>
-    <t>AIYE009280767</t>
-  </si>
-  <si>
-    <t>AIYE009280763</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Consignment No. (หมายเลขพัสดุ)</t>
+  </si>
+  <si>
+    <t>Customer Ref No. (เลขอ้างอิง)</t>
+  </si>
+  <si>
+    <t>Sender Code (รหัสผู้ส่ง)</t>
+  </si>
+  <si>
+    <t>Recipient Code (รหัสผู้รับ)</t>
+  </si>
+  <si>
+    <t>Recipient Name (ชื่อผู้รับ)</t>
+  </si>
+  <si>
+    <t>Address (ที่อยู่ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Postcode (รหัสไปรษณีย์ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Mobile (เบอร์มือถือผู้รับ)</t>
+  </si>
+  <si>
+    <t>Contact Person (ชื่อผู้ติดต่อ)</t>
+  </si>
+  <si>
+    <t>Phone No. (เบอร์ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Email (อีเมลผู้รับ)</t>
+  </si>
+  <si>
+    <t>Declare Value (มูลค่าสินค้า)</t>
+  </si>
+  <si>
+    <t>COD Amount (ยอดเก็บเงินปลายทาง)</t>
+  </si>
+  <si>
+    <t>Remark (หมายเหตุ)</t>
+  </si>
+  <si>
+    <t>Total Box (จำนวนกล่อง)</t>
+  </si>
+  <si>
+    <t>Sat Del (จัดส่งวันเสาร์)</t>
+  </si>
+  <si>
+    <t>HCR (Y/N)</t>
+  </si>
+  <si>
+    <t>INVR (Y/N)</t>
+  </si>
+  <si>
+    <t>Service Code (รหัสบริการ)</t>
+  </si>
+  <si>
+    <t>O121090300001</t>
+  </si>
+  <si>
+    <t>กกกกก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ต.  อ.  จ.  รหัส ปณ. </t>
+  </si>
+  <si>
+    <t>track0000000001</t>
   </si>
 </sst>
 </file>
@@ -160,10 +102,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF002699"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,9 +130,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,76 +435,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -574,113 +534,6 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2">
-        <v>31190</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>30180</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>51000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>51000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments.xlsx
+++ b/local/public/uploads/consignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE528027-1244-45ED-86C1-7FE266C400B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D162B95-0835-46A0-80FA-5C7739BDE84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,75 +20,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Consignment No. (หมายเลขพัสดุ)</t>
-  </si>
-  <si>
-    <t>Customer Ref No. (เลขอ้างอิง)</t>
-  </si>
-  <si>
-    <t>Sender Code (รหัสผู้ส่ง)</t>
-  </si>
-  <si>
-    <t>Recipient Code (รหัสผู้รับ)</t>
-  </si>
-  <si>
-    <t>Recipient Name (ชื่อผู้รับ)</t>
-  </si>
-  <si>
-    <t>Address (ที่อยู่ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Postcode (รหัสไปรษณีย์ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Mobile (เบอร์มือถือผู้รับ)</t>
-  </si>
-  <si>
-    <t>Contact Person (ชื่อผู้ติดต่อ)</t>
-  </si>
-  <si>
-    <t>Phone No. (เบอร์ผู้รับ)</t>
-  </si>
-  <si>
-    <t>Email (อีเมลผู้รับ)</t>
-  </si>
-  <si>
-    <t>Declare Value (มูลค่าสินค้า)</t>
-  </si>
-  <si>
-    <t>COD Amount (ยอดเก็บเงินปลายทาง)</t>
-  </si>
-  <si>
-    <t>Remark (หมายเหตุ)</t>
-  </si>
-  <si>
-    <t>Total Box (จำนวนกล่อง)</t>
-  </si>
-  <si>
-    <t>Sat Del (จัดส่งวันเสาร์)</t>
-  </si>
-  <si>
-    <t>HCR (Y/N)</t>
-  </si>
-  <si>
-    <t>INVR (Y/N)</t>
-  </si>
-  <si>
-    <t>Service Code (รหัสบริการ)</t>
-  </si>
-  <si>
-    <t>O121090300001</t>
-  </si>
-  <si>
-    <t>กกกกก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   ต.  อ.  จ.  รหัส ปณ. </t>
-  </si>
-  <si>
-    <t>track0000000001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+  <si>
+    <t>consignment_no</t>
+  </si>
+  <si>
+    <t>customer_ref_no</t>
+  </si>
+  <si>
+    <t>sender_code</t>
+  </si>
+  <si>
+    <t>recipient_code</t>
+  </si>
+  <si>
+    <t>recipient_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>phone_no</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>declare_value</t>
+  </si>
+  <si>
+    <t>cod_amount</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>total_box</t>
+  </si>
+  <si>
+    <t>sat_del</t>
+  </si>
+  <si>
+    <t>hrc</t>
+  </si>
+  <si>
+    <t>invr</t>
+  </si>
+  <si>
+    <t>service_code</t>
+  </si>
+  <si>
+    <t>P2102100001</t>
+  </si>
+  <si>
+    <t>นายเรืองฤทธิ์ ชาติมนตรี</t>
+  </si>
+  <si>
+    <t>1 ม. 5 หัวฝาย ต.หินเหล็กไฟ อ.คูเมือง จ.บุรีรัมย์</t>
+  </si>
+  <si>
+    <t>085-1004450</t>
+  </si>
+  <si>
+    <t>P2102100002</t>
+  </si>
+  <si>
+    <t>สุภรรณี คลุ้มกระโทก</t>
+  </si>
+  <si>
+    <t>333 ม.16 ต.ประทาย อ.ประทาย จ.นครราชสีมา</t>
+  </si>
+  <si>
+    <t>091-8308064</t>
+  </si>
+  <si>
+    <t>P2102100003</t>
+  </si>
+  <si>
+    <t>สุพิชญ์รดา คำปุทา</t>
+  </si>
+  <si>
+    <t>สำนักวิจัยและพัฒนาการเกษตรเขตที่ 3 
+เลขที่ 180 หมู่ 27 ต.ศิลา  อ.เมือง จ.ขอนแก่น</t>
+  </si>
+  <si>
+    <t>088 7998542</t>
+  </si>
+  <si>
+    <t>P2102100004</t>
+  </si>
+  <si>
+    <t>ชญานันท์ พิมพ์วันวงศ์</t>
+  </si>
+  <si>
+    <t>84 กู่ช้าง - กู่ม้า ต.ในเมือง อ.เมือง จ.ลำพูน</t>
+  </si>
+  <si>
+    <t>088-9479895</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 083-2325974</t>
+  </si>
+  <si>
+    <t>P00001</t>
+  </si>
+  <si>
+    <t>AIYE009280764</t>
+  </si>
+  <si>
+    <t>AIYE009280765</t>
+  </si>
+  <si>
+    <t>AIYE009280766</t>
+  </si>
+  <si>
+    <t>AIYE009280767</t>
+  </si>
+  <si>
+    <t>AIYE009280763</t>
   </si>
 </sst>
 </file>
@@ -102,10 +160,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF002699"/>
-      <name val="Verdana"/>
+      <color rgb="FF7030A0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +188,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,96 +495,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
+    <row r="2" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -534,6 +574,113 @@
       </c>
       <c r="F2" t="s">
         <v>21</v>
+      </c>
+      <c r="G2">
+        <v>31190</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>30180</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4">
+        <v>40000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>51000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>51000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments.xlsx
+++ b/local/public/uploads/consignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D162B95-0835-46A0-80FA-5C7739BDE84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8808B-72F5-4B4F-8CE5-6BB35FE9BD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,133 +20,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
-  <si>
-    <t>consignment_no</t>
-  </si>
-  <si>
-    <t>customer_ref_no</t>
-  </si>
-  <si>
-    <t>sender_code</t>
-  </si>
-  <si>
-    <t>recipient_code</t>
-  </si>
-  <si>
-    <t>recipient_name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>contact_person</t>
-  </si>
-  <si>
-    <t>phone_no</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>declare_value</t>
-  </si>
-  <si>
-    <t>cod_amount</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>total_box</t>
-  </si>
-  <si>
-    <t>sat_del</t>
-  </si>
-  <si>
-    <t>hrc</t>
-  </si>
-  <si>
-    <t>invr</t>
-  </si>
-  <si>
-    <t>service_code</t>
-  </si>
-  <si>
-    <t>P2102100001</t>
-  </si>
-  <si>
-    <t>นายเรืองฤทธิ์ ชาติมนตรี</t>
-  </si>
-  <si>
-    <t>1 ม. 5 หัวฝาย ต.หินเหล็กไฟ อ.คูเมือง จ.บุรีรัมย์</t>
-  </si>
-  <si>
-    <t>085-1004450</t>
-  </si>
-  <si>
-    <t>P2102100002</t>
-  </si>
-  <si>
-    <t>สุภรรณี คลุ้มกระโทก</t>
-  </si>
-  <si>
-    <t>333 ม.16 ต.ประทาย อ.ประทาย จ.นครราชสีมา</t>
-  </si>
-  <si>
-    <t>091-8308064</t>
-  </si>
-  <si>
-    <t>P2102100003</t>
-  </si>
-  <si>
-    <t>สุพิชญ์รดา คำปุทา</t>
-  </si>
-  <si>
-    <t>สำนักวิจัยและพัฒนาการเกษตรเขตที่ 3 
-เลขที่ 180 หมู่ 27 ต.ศิลา  อ.เมือง จ.ขอนแก่น</t>
-  </si>
-  <si>
-    <t>088 7998542</t>
-  </si>
-  <si>
-    <t>P2102100004</t>
-  </si>
-  <si>
-    <t>ชญานันท์ พิมพ์วันวงศ์</t>
-  </si>
-  <si>
-    <t>84 กู่ช้าง - กู่ม้า ต.ในเมือง อ.เมือง จ.ลำพูน</t>
-  </si>
-  <si>
-    <t>088-9479895</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 083-2325974</t>
-  </si>
-  <si>
-    <t>P00001</t>
-  </si>
-  <si>
-    <t>AIYE009280764</t>
-  </si>
-  <si>
-    <t>AIYE009280765</t>
-  </si>
-  <si>
-    <t>AIYE009280766</t>
-  </si>
-  <si>
-    <t>AIYE009280767</t>
-  </si>
-  <si>
-    <t>AIYE009280763</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Consignment No. (หมายเลขพัสดุ)</t>
+  </si>
+  <si>
+    <t>Customer Ref No. (เลขอ้างอิง)</t>
+  </si>
+  <si>
+    <t>Sender Code (รหัสผู้ส่ง)</t>
+  </si>
+  <si>
+    <t>Recipient Code (รหัสผู้รับ)</t>
+  </si>
+  <si>
+    <t>Recipient Name (ชื่อผู้รับ)</t>
+  </si>
+  <si>
+    <t>Address (ที่อยู่ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Postcode (รหัสไปรษณีย์ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Mobile (เบอร์มือถือผู้รับ)</t>
+  </si>
+  <si>
+    <t>Contact Person (ชื่อผู้ติดต่อ)</t>
+  </si>
+  <si>
+    <t>Phone No. (เบอร์ผู้รับ)</t>
+  </si>
+  <si>
+    <t>Email (อีเมลผู้รับ)</t>
+  </si>
+  <si>
+    <t>Declare Value (มูลค่าสินค้า)</t>
+  </si>
+  <si>
+    <t>COD Amount (ยอดเก็บเงินปลายทาง)</t>
+  </si>
+  <si>
+    <t>Remark (หมายเหตุ)</t>
+  </si>
+  <si>
+    <t>Total Box (จำนวนกล่อง)</t>
+  </si>
+  <si>
+    <t>Sat Del (จัดส่งวันเสาร์)</t>
+  </si>
+  <si>
+    <t>HCR (Y/N)</t>
+  </si>
+  <si>
+    <t>INVR (Y/N)</t>
+  </si>
+  <si>
+    <t>Service Code (รหัสบริการ)</t>
+  </si>
+  <si>
+    <t>P100001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คุณศิริศักดิ์ ประพฤติ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">206 ม.5 ซ.ประมง 7 ต.หนองกอมเกาะ อ.เมือง จ.หนองคาย </t>
+  </si>
+  <si>
+    <t>O121092700405</t>
+  </si>
+  <si>
+    <t>คุณรัตนกร วณิชย์กุล</t>
+  </si>
+  <si>
+    <t>18/6 สุขุมวิท 23 ซอยประสานมิตร ต. แขวงคลองเตยเหนือ อ. เขตวัฒนา จ. กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>0954314475</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>zzzzzzzzzzzzz</t>
   </si>
 </sst>
 </file>
@@ -160,10 +117,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <color rgb="FF002699"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,9 +145,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,76 +450,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -576,111 +551,30 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>31190</v>
-      </c>
-      <c r="H2" t="s">
+        <v>43000</v>
+      </c>
+      <c r="H2">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3">
+        <v>10110</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3">
-        <v>30180</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>40000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5">
-        <v>51000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6">
-        <v>51000</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/local/public/uploads/consignments.xlsx
+++ b/local/public/uploads/consignments.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8808B-72F5-4B4F-8CE5-6BB35FE9BD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,45 +74,38 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คุณศิริศักดิ์ ประพฤติ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">206 ม.5 ซ.ประมง 7 ต.หนองกอมเกาะ อ.เมือง จ.หนองคาย </t>
-  </si>
-  <si>
-    <t>O121092700405</t>
-  </si>
-  <si>
-    <t>คุณรัตนกร วณิชย์กุล</t>
-  </si>
-  <si>
-    <t>18/6 สุขุมวิท 23 ซอยประสานมิตร ต. แขวงคลองเตยเหนือ อ. เขตวัฒนา จ. กรุงเทพมหานคร</t>
-  </si>
-  <si>
-    <t>0954314475</t>
-  </si>
-  <si>
-    <t>xxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>zzzzzzzzzzzzz</t>
+    <t>O121091000108</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
@@ -128,38 +116,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -449,36 +430,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="94" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="29.992676" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,10 +522,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
+    <row r="2" spans="1:19">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>19</v>
       </c>
@@ -551,34 +536,35 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>43000</v>
-      </c>
-      <c r="H2">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
+        <v>81160</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>10110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/local/public/uploads/consignments.xlsx
+++ b/local/public/uploads/consignments.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paint/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847019C-C3E1-9949-BE91-1C24DB4D9EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -74,41 +79,43 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121091000108</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- </t>
+    <t>O121112200144</t>
+  </si>
+  <si>
+    <t>lorem</t>
+  </si>
+  <si>
+    <t>245 ม 7, ต.บางสีทอง , อ.บางกรวย, จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>Tel. 0988888678</t>
+  </si>
+  <si>
+    <t>POIUYTR000000001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,31 +123,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,40 +445,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="34.991455" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="37.562256" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33.706055" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="38.847656" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="29.992676" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="24.993896" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="36.276855" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="39.990234" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="22.423096" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="28.707275" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31.278076" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12.425537" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="13.710938" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="32.563477" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +533,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
@@ -536,35 +547,18 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>81160</v>
+        <v>11130</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/local/public/uploads/consignments.xlsx
+++ b/local/public/uploads/consignments.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paint/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warawut\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7847019C-C3E1-9949-BE91-1C24DB4D9EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F665AAA2-BF17-4598-BB76-156756678506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,26 +79,26 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>O121112200144</t>
-  </si>
-  <si>
-    <t>lorem</t>
-  </si>
-  <si>
-    <t>245 ม 7, ต.บางสีทอง , อ.บางกรวย, จ.นนทบุรี</t>
-  </si>
-  <si>
-    <t>Tel. 0988888678</t>
-  </si>
-  <si>
-    <t>POIUYTR000000001</t>
+    <t>P100040</t>
+  </si>
+  <si>
+    <t>คุณอัญชนา เมธาวิกูล</t>
+  </si>
+  <si>
+    <t>202 (ห้อง A) ปั๊มปตท. หน้าบิ๊กซีดอนจั่น, ต.ท่าศาลา , อ.เมืองเชียงใหม่, จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t>096-926-3983</t>
+  </si>
+  <si>
+    <t>A1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,13 +109,6 @@
       <sz val="11"/>
       <color rgb="FF002699"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,10 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,32 +441,32 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +525,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
@@ -547,18 +539,17 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>11130</v>
+        <v>50000</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="S2">
-        <v>1</v>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>